--- a/points_spent_index.xlsx
+++ b/points_spent_index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>EU4 Stats</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Militarization</t>
-  </si>
-  <si>
-    <t>Establish Holy Orders</t>
   </si>
   <si>
     <t>Promote Culture</t>
@@ -623,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,10 +645,10 @@
       </c>
       <c r="C1" s="2"/>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,13 +702,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,13 +719,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -739,13 +736,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,13 +753,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,13 +770,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -793,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,13 +807,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,13 +827,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="1">
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,13 +847,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,13 +867,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1">
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,13 +887,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,7 +907,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1">
         <v>13</v>
@@ -930,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -944,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1">
         <v>15</v>
@@ -961,13 +958,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1">
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -981,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,7 +992,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,7 +1003,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1020,7 +1017,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1028,13 +1025,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1">
         <v>21</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,7 +1045,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1062,7 +1059,7 @@
         <v>23</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,7 +1070,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1109,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,7 +1120,7 @@
         <v>28</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,7 +1134,7 @@
         <v>29</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1162,7 +1159,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,7 +1185,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
@@ -1199,7 +1196,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1259,7 +1256,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,15 +1264,12 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
